--- a/resources/Api Gateway Routing List.xlsx
+++ b/resources/Api Gateway Routing List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Projects/Microservices/tedu-aspnetcore-microservices/tedu-aspnetcore-microservices/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788E0B89-D44F-E84A-A599-E8AB1811EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B8D04-E2AB-C54B-BE60-D7FCCE14005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-4520" windowWidth="34400" windowHeight="28300" xr2:uid="{829B0657-23D9-5945-AEF6-57595C267C2C}"/>
   </bookViews>
